--- a/biology/Zoologie/Catocala_conjuncta/Catocala_conjuncta.xlsx
+++ b/biology/Zoologie/Catocala_conjuncta/Catocala_conjuncta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Conjointe (Catocala conjuncta ou Catocala coniuncta) est une espèce de lépidoptères de la famille des Erebidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve en Europe du Sud, en Afrique du Nord et au Moyen-Orient. En France, cette espèce méridionale remonte jusqu'en Vendée et aussi dans le Centre, l'imago de juillet à octobre.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a une envergure de 70 à 75 mm. Ses ailes postérieures rouges présentent une ligne médiane foncée fine, régulière, ce qui la distingue de l'espèce proche Catocala promissa (la Promise).
 </t>
@@ -573,7 +589,9 @@
           <t>Chenille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa larve se nourrit du Chêne vert et d'autres espèces de chênes à feuillage persistant.
 </t>
@@ -604,7 +622,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Collectif d'entomologistes amateurs, Guide des papillons nocturnes de France : plus de 1620 espèces décrites et illustrées, Paris, Delachaux et Niestlé, 2007, 288 p. (ISBN 978-2-603-01429-5), p. 102 n° 910.
 </t>
